--- a/Ethernet_Board/Ethernet_Board_Rev_A1_BOM.xlsx
+++ b/Ethernet_Board/Ethernet_Board_Rev_A1_BOM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>Quantity</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Modular Connectors / Ethernet Connectors RJ-45 w/ Transformer connector/ude</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Bill of Materials</t>
   </si>
 </sst>
 </file>
@@ -411,6 +417,24 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I14" totalsRowShown="0">
+  <autoFilter ref="A1:I14"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Quantity"/>
+    <tableColumn id="2" name="Value"/>
+    <tableColumn id="3" name="Package"/>
+    <tableColumn id="4" name="Order code"/>
+    <tableColumn id="5" name="Manufacturer"/>
+    <tableColumn id="6" name="Manuf. Code"/>
+    <tableColumn id="7" name="Availability"/>
+    <tableColumn id="8" name="Price (from)"/>
+    <tableColumn id="9" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B10"/>
+  <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,26 +764,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="4">
-        <f ca="1">TODAY()</f>
-        <v>42746</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4">
+        <f ca="1">TODAY()</f>
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -773,20 +805,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="122.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1196,5 +1228,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>